--- a/REGULAR/MANGUINAO, GILBERT.xlsx
+++ b/REGULAR/MANGUINAO, GILBERT.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="329">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1011,6 +1011,15 @@
   </si>
   <si>
     <t>7/25,26/2023</t>
+  </si>
+  <si>
+    <t>9/28 , 10/2/2023</t>
+  </si>
+  <si>
+    <t>10/23,24/2023</t>
+  </si>
+  <si>
+    <t>11/28,29/2023</t>
   </si>
 </sst>
 </file>
@@ -1719,7 +1728,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K816" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K817" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2048,12 +2057,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:L816"/>
+  <dimension ref="A2:L817"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="4425" topLeftCell="A567" activePane="bottomLeft"/>
-      <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="K578" sqref="K578"/>
+      <selection activeCell="F2" sqref="F2:G2"/>
+      <selection pane="bottomLeft" activeCell="J581" sqref="J581"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2217,7 +2226,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>148.68640000000016</v>
+        <v>151.18640000000016</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2227,7 +2236,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>110.79200000000003</v>
+        <v>107.29200000000003</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -15016,10 +15025,10 @@
       </c>
     </row>
     <row r="579" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A579" s="40">
-        <v>45200</v>
-      </c>
-      <c r="B579" s="20"/>
+      <c r="A579" s="40"/>
+      <c r="B579" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C579" s="13"/>
       <c r="D579" s="39"/>
       <c r="E579" s="9"/>
@@ -15028,50 +15037,70 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H579" s="39"/>
+      <c r="H579" s="39">
+        <v>2</v>
+      </c>
       <c r="I579" s="9"/>
       <c r="J579" s="11"/>
-      <c r="K579" s="20"/>
+      <c r="K579" s="49" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="40">
-        <v>45231</v>
-      </c>
-      <c r="B580" s="20"/>
-      <c r="C580" s="13"/>
+        <v>45200</v>
+      </c>
+      <c r="B580" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C580" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D580" s="39"/>
       <c r="E580" s="9"/>
       <c r="F580" s="20"/>
-      <c r="G580" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H580" s="39"/>
+      <c r="G580" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H580" s="39">
+        <v>2</v>
+      </c>
       <c r="I580" s="9"/>
       <c r="J580" s="11"/>
-      <c r="K580" s="20"/>
+      <c r="K580" s="20" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="40">
-        <v>45261</v>
-      </c>
-      <c r="B581" s="20"/>
-      <c r="C581" s="13"/>
+        <v>45231</v>
+      </c>
+      <c r="B581" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C581" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D581" s="39"/>
       <c r="E581" s="9"/>
       <c r="F581" s="20"/>
-      <c r="G581" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H581" s="39"/>
+      <c r="G581" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H581" s="39">
+        <v>2</v>
+      </c>
       <c r="I581" s="9"/>
       <c r="J581" s="11"/>
-      <c r="K581" s="20"/>
+      <c r="K581" s="20" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B582" s="20"/>
       <c r="C582" s="13"/>
@@ -15089,7 +15118,7 @@
     </row>
     <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B583" s="20"/>
       <c r="C583" s="13"/>
@@ -15107,7 +15136,7 @@
     </row>
     <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B584" s="20"/>
       <c r="C584" s="13"/>
@@ -15125,7 +15154,7 @@
     </row>
     <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B585" s="20"/>
       <c r="C585" s="13"/>
@@ -15143,7 +15172,7 @@
     </row>
     <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B586" s="20"/>
       <c r="C586" s="13"/>
@@ -15161,7 +15190,7 @@
     </row>
     <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B587" s="20"/>
       <c r="C587" s="13"/>
@@ -15179,7 +15208,7 @@
     </row>
     <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B588" s="20"/>
       <c r="C588" s="13"/>
@@ -15197,7 +15226,7 @@
     </row>
     <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B589" s="20"/>
       <c r="C589" s="13"/>
@@ -15215,7 +15244,7 @@
     </row>
     <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B590" s="20"/>
       <c r="C590" s="13"/>
@@ -15233,7 +15262,7 @@
     </row>
     <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B591" s="20"/>
       <c r="C591" s="13"/>
@@ -15251,7 +15280,7 @@
     </row>
     <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B592" s="20"/>
       <c r="C592" s="13"/>
@@ -15269,7 +15298,7 @@
     </row>
     <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B593" s="20"/>
       <c r="C593" s="13"/>
@@ -15287,7 +15316,7 @@
     </row>
     <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B594" s="20"/>
       <c r="C594" s="13"/>
@@ -15305,7 +15334,7 @@
     </row>
     <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B595" s="20"/>
       <c r="C595" s="13"/>
@@ -15323,7 +15352,7 @@
     </row>
     <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B596" s="20"/>
       <c r="C596" s="13"/>
@@ -15341,7 +15370,7 @@
     </row>
     <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B597" s="20"/>
       <c r="C597" s="13"/>
@@ -15359,7 +15388,7 @@
     </row>
     <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B598" s="20"/>
       <c r="C598" s="13"/>
@@ -15377,7 +15406,7 @@
     </row>
     <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B599" s="20"/>
       <c r="C599" s="13"/>
@@ -15395,7 +15424,7 @@
     </row>
     <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B600" s="20"/>
       <c r="C600" s="13"/>
@@ -15413,7 +15442,7 @@
     </row>
     <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B601" s="20"/>
       <c r="C601" s="13"/>
@@ -15431,7 +15460,7 @@
     </row>
     <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B602" s="20"/>
       <c r="C602" s="13"/>
@@ -15449,7 +15478,7 @@
     </row>
     <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B603" s="20"/>
       <c r="C603" s="13"/>
@@ -15467,7 +15496,7 @@
     </row>
     <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B604" s="20"/>
       <c r="C604" s="13"/>
@@ -15485,7 +15514,7 @@
     </row>
     <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B605" s="20"/>
       <c r="C605" s="13"/>
@@ -15503,7 +15532,7 @@
     </row>
     <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B606" s="20"/>
       <c r="C606" s="13"/>
@@ -15521,7 +15550,7 @@
     </row>
     <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B607" s="20"/>
       <c r="C607" s="13"/>
@@ -15539,7 +15568,7 @@
     </row>
     <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B608" s="20"/>
       <c r="C608" s="13"/>
@@ -15557,7 +15586,7 @@
     </row>
     <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B609" s="20"/>
       <c r="C609" s="13"/>
@@ -15575,7 +15604,7 @@
     </row>
     <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B610" s="20"/>
       <c r="C610" s="13"/>
@@ -15593,7 +15622,7 @@
     </row>
     <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B611" s="20"/>
       <c r="C611" s="13"/>
@@ -15611,7 +15640,7 @@
     </row>
     <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B612" s="20"/>
       <c r="C612" s="13"/>
@@ -15629,7 +15658,7 @@
     </row>
     <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" s="40">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B613" s="20"/>
       <c r="C613" s="13"/>
@@ -15647,7 +15676,7 @@
     </row>
     <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" s="40">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B614" s="20"/>
       <c r="C614" s="13"/>
@@ -15665,7 +15694,7 @@
     </row>
     <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A615" s="40">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B615" s="20"/>
       <c r="C615" s="13"/>
@@ -15683,7 +15712,7 @@
     </row>
     <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616" s="40">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B616" s="20"/>
       <c r="C616" s="13"/>
@@ -15701,7 +15730,7 @@
     </row>
     <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" s="40">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B617" s="20"/>
       <c r="C617" s="13"/>
@@ -15719,7 +15748,7 @@
     </row>
     <row r="618" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A618" s="40">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B618" s="20"/>
       <c r="C618" s="13"/>
@@ -15737,7 +15766,7 @@
     </row>
     <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A619" s="40">
-        <v>46419</v>
+        <v>46388</v>
       </c>
       <c r="B619" s="20"/>
       <c r="C619" s="13"/>
@@ -15755,7 +15784,7 @@
     </row>
     <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A620" s="40">
-        <v>46447</v>
+        <v>46419</v>
       </c>
       <c r="B620" s="20"/>
       <c r="C620" s="13"/>
@@ -15773,7 +15802,7 @@
     </row>
     <row r="621" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A621" s="40">
-        <v>46478</v>
+        <v>46447</v>
       </c>
       <c r="B621" s="20"/>
       <c r="C621" s="13"/>
@@ -15791,7 +15820,7 @@
     </row>
     <row r="622" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A622" s="40">
-        <v>46508</v>
+        <v>46478</v>
       </c>
       <c r="B622" s="20"/>
       <c r="C622" s="13"/>
@@ -15809,7 +15838,7 @@
     </row>
     <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A623" s="40">
-        <v>46539</v>
+        <v>46508</v>
       </c>
       <c r="B623" s="20"/>
       <c r="C623" s="13"/>
@@ -15827,7 +15856,7 @@
     </row>
     <row r="624" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A624" s="40">
-        <v>46569</v>
+        <v>46539</v>
       </c>
       <c r="B624" s="20"/>
       <c r="C624" s="13"/>
@@ -15845,7 +15874,7 @@
     </row>
     <row r="625" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A625" s="40">
-        <v>46600</v>
+        <v>46569</v>
       </c>
       <c r="B625" s="20"/>
       <c r="C625" s="13"/>
@@ -15863,7 +15892,7 @@
     </row>
     <row r="626" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A626" s="40">
-        <v>46631</v>
+        <v>46600</v>
       </c>
       <c r="B626" s="20"/>
       <c r="C626" s="13"/>
@@ -15881,7 +15910,7 @@
     </row>
     <row r="627" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A627" s="40">
-        <v>46661</v>
+        <v>46631</v>
       </c>
       <c r="B627" s="20"/>
       <c r="C627" s="13"/>
@@ -15899,7 +15928,7 @@
     </row>
     <row r="628" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A628" s="40">
-        <v>46692</v>
+        <v>46661</v>
       </c>
       <c r="B628" s="20"/>
       <c r="C628" s="13"/>
@@ -15917,7 +15946,7 @@
     </row>
     <row r="629" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A629" s="40">
-        <v>46722</v>
+        <v>46692</v>
       </c>
       <c r="B629" s="20"/>
       <c r="C629" s="13"/>
@@ -15935,7 +15964,7 @@
     </row>
     <row r="630" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A630" s="40">
-        <v>46753</v>
+        <v>46722</v>
       </c>
       <c r="B630" s="20"/>
       <c r="C630" s="13"/>
@@ -15952,7 +15981,9 @@
       <c r="K630" s="20"/>
     </row>
     <row r="631" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A631" s="40"/>
+      <c r="A631" s="40">
+        <v>46753</v>
+      </c>
       <c r="B631" s="20"/>
       <c r="C631" s="13"/>
       <c r="D631" s="39"/>
@@ -18912,20 +18943,36 @@
       <c r="K815" s="20"/>
     </row>
     <row r="816" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A816" s="41"/>
-      <c r="B816" s="15"/>
-      <c r="C816" s="42"/>
-      <c r="D816" s="43"/>
-      <c r="E816" s="52"/>
-      <c r="F816" s="15"/>
+      <c r="A816" s="40"/>
+      <c r="B816" s="20"/>
+      <c r="C816" s="13"/>
+      <c r="D816" s="39"/>
+      <c r="E816" s="9"/>
+      <c r="F816" s="20"/>
       <c r="G816" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H816" s="43"/>
-      <c r="I816" s="52"/>
-      <c r="J816" s="12"/>
-      <c r="K816" s="15"/>
+      <c r="H816" s="39"/>
+      <c r="I816" s="9"/>
+      <c r="J816" s="11"/>
+      <c r="K816" s="20"/>
+    </row>
+    <row r="817" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A817" s="41"/>
+      <c r="B817" s="15"/>
+      <c r="C817" s="42"/>
+      <c r="D817" s="43"/>
+      <c r="E817" s="52"/>
+      <c r="F817" s="15"/>
+      <c r="G817" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H817" s="43"/>
+      <c r="I817" s="52"/>
+      <c r="J817" s="12"/>
+      <c r="K817" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
